--- a/数据整理/stocks/A股/深证主板/002281-光迅科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002281-光迅科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,13 +1015,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002281-光迅科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002281-光迅科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002281-光迅科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002281-光迅科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,509 +453,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3046</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1094</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515990</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0935</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0898</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009128</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008778</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008779</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009129</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1016,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012496</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰行业优选股票A</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>84.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0615</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1054,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012497</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰行业优选股票C</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>84.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1148,36 +720,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>012496</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>同泰行业优选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1186,36 +758,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>012497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>同泰行业优选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0168</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1229,80 +801,508 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.73</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002281-光迅科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002281-光迅科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>39.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.1736</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>39.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0168</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -720,36 +737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012496</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰行业优选股票A</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>84.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0615</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -758,36 +775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012497</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰行业优选股票C</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>84.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -796,6 +813,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002281-光迅科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002281-光迅科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -615,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39.13</t>
+          <t>43.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1736</t>
+          <t>0.1803</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -653,26 +670,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39.13</t>
+          <t>43.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -737,36 +754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>39.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.1736</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -775,36 +792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>39.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0168</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -869,36 +886,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012496</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰行业优选股票A</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>84.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0615</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -907,36 +924,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012497</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰行业优选股票C</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>84.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -945,6 +962,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
